--- a/Raw Data/ACTIVITY.xlsx
+++ b/Raw Data/ACTIVITY.xlsx
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -864,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -893,2753 +893,2753 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43586</v>
+        <v>43570</v>
       </c>
       <c r="B2">
-        <v>5433</v>
+        <v>6158</v>
       </c>
       <c r="C2" s="2">
-        <v>3.71</v>
+        <v>4.28</v>
       </c>
       <c r="D2">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3">
-        <v>5.6944444444444443E-2</v>
+        <v>5.347222222222222E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43587</v>
+        <v>43571</v>
       </c>
       <c r="B3">
-        <v>7765</v>
+        <v>17791</v>
       </c>
       <c r="C3" s="2">
-        <v>5.92</v>
+        <v>13.67</v>
       </c>
       <c r="D3">
-        <v>254</v>
+        <v>561</v>
       </c>
       <c r="E3" s="3">
-        <v>6.1805555555555558E-2</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43588</v>
+        <v>43572</v>
       </c>
       <c r="B4">
-        <v>5485</v>
+        <v>4889</v>
       </c>
       <c r="C4" s="2">
-        <v>3.94</v>
+        <v>3.51</v>
       </c>
       <c r="D4">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3">
-        <v>5.2083333333333336E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43589</v>
+        <v>43573</v>
       </c>
       <c r="B5">
-        <v>6521</v>
+        <v>13788</v>
       </c>
       <c r="C5" s="2">
-        <v>4.4400000000000004</v>
+        <v>10.47</v>
       </c>
       <c r="D5">
-        <v>177</v>
+        <v>429</v>
       </c>
       <c r="E5" s="3">
-        <v>6.9444444444444434E-2</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43590</v>
+        <v>43574</v>
       </c>
       <c r="B6">
-        <v>10372</v>
+        <v>6303</v>
       </c>
       <c r="C6" s="2">
-        <v>7.14</v>
+        <v>4.43</v>
       </c>
       <c r="D6">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3">
-        <v>9.6527777777777768E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43591</v>
+        <v>43575</v>
       </c>
       <c r="B7">
-        <v>4821</v>
+        <v>12798</v>
       </c>
       <c r="C7" s="2">
-        <v>3.4</v>
+        <v>8.77</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="E7" s="3">
-        <v>4.7222222222222221E-2</v>
+        <v>0.12291666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43592</v>
+        <v>43576</v>
       </c>
       <c r="B8">
-        <v>5864</v>
+        <v>8255</v>
       </c>
       <c r="C8" s="2">
-        <v>4.1100000000000003</v>
+        <v>5.67</v>
       </c>
       <c r="D8">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="E8" s="3">
-        <v>5.6250000000000001E-2</v>
+        <v>7.7083333333333337E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43593</v>
+        <v>43577</v>
       </c>
       <c r="B9">
-        <v>9391</v>
+        <v>13308</v>
       </c>
       <c r="C9" s="2">
-        <v>6.75</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="D9">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="E9" s="3">
-        <v>8.4722222222222213E-2</v>
+        <v>0.11597222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43594</v>
+        <v>43578</v>
       </c>
       <c r="B10">
-        <v>8332</v>
+        <v>11678</v>
       </c>
       <c r="C10" s="2">
-        <v>5.79</v>
+        <v>8.6</v>
       </c>
       <c r="D10">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="E10" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>9.5833333333333326E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43595</v>
+        <v>43579</v>
       </c>
       <c r="B11">
-        <v>14848</v>
+        <v>7048</v>
       </c>
       <c r="C11" s="2">
-        <v>11.05</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D11">
-        <v>429</v>
+        <v>183</v>
       </c>
       <c r="E11" s="3">
-        <v>0.12013888888888889</v>
+        <v>6.805555555555555E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43596</v>
+        <v>43580</v>
       </c>
       <c r="B12">
-        <v>9197</v>
+        <v>6126</v>
       </c>
       <c r="C12" s="2">
-        <v>6.28</v>
+        <v>4.34</v>
       </c>
       <c r="D12">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="E12" s="3">
-        <v>9.5138888888888884E-2</v>
+        <v>5.486111111111111E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43597</v>
+        <v>43581</v>
       </c>
       <c r="B13">
-        <v>6248</v>
+        <v>9638</v>
       </c>
       <c r="C13" s="2">
-        <v>4.26</v>
+        <v>6.98</v>
       </c>
       <c r="D13">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="E13" s="3">
-        <v>6.5972222222222224E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43598</v>
+        <v>43582</v>
       </c>
       <c r="B14">
-        <v>13014</v>
+        <v>9509</v>
       </c>
       <c r="C14" s="2">
-        <v>9.84</v>
+        <v>6.47</v>
       </c>
       <c r="D14">
-        <v>397</v>
+        <v>237</v>
       </c>
       <c r="E14" s="3">
-        <v>0.10277777777777779</v>
+        <v>9.2361111111111116E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43599</v>
+        <v>43583</v>
       </c>
       <c r="B15">
-        <v>5143</v>
+        <v>8615</v>
       </c>
       <c r="C15" s="2">
-        <v>3.62</v>
+        <v>5.87</v>
       </c>
       <c r="D15">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E15" s="3">
-        <v>4.3055555555555562E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43600</v>
+        <v>43584</v>
       </c>
       <c r="B16">
-        <v>5915</v>
+        <v>6801</v>
       </c>
       <c r="C16" s="2">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E16" s="3">
-        <v>5.2083333333333336E-2</v>
+        <v>6.1805555555555558E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43601</v>
+        <v>43585</v>
       </c>
       <c r="B17">
-        <v>10995</v>
+        <v>8280</v>
       </c>
       <c r="C17" s="2">
-        <v>8.51</v>
+        <v>6.15</v>
       </c>
       <c r="D17">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="E17" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>6.8749999999999992E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43602</v>
+        <v>43586</v>
       </c>
       <c r="B18">
-        <v>7480</v>
+        <v>5433</v>
       </c>
       <c r="C18" s="2">
-        <v>5.43</v>
+        <v>3.71</v>
       </c>
       <c r="D18">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="E18" s="3">
-        <v>6.3194444444444442E-2</v>
+        <v>5.6944444444444443E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43603</v>
+        <v>43587</v>
       </c>
       <c r="B19">
-        <v>13438</v>
+        <v>7765</v>
       </c>
       <c r="C19" s="2">
-        <v>9.35</v>
+        <v>5.92</v>
       </c>
       <c r="D19">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="E19" s="3">
-        <v>0.12569444444444444</v>
+        <v>6.1805555555555558E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43604</v>
+        <v>43588</v>
       </c>
       <c r="B20">
-        <v>12407</v>
+        <v>5485</v>
       </c>
       <c r="C20" s="2">
-        <v>8.5299999999999994</v>
+        <v>3.94</v>
       </c>
       <c r="D20">
-        <v>315</v>
+        <v>154</v>
       </c>
       <c r="E20" s="3">
-        <v>0.1173611111111111</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43605</v>
+        <v>43589</v>
       </c>
       <c r="B21">
-        <v>5705</v>
+        <v>6521</v>
       </c>
       <c r="C21" s="2">
-        <v>3.95</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="D21">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E21" s="3">
-        <v>5.2083333333333336E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43606</v>
+        <v>43590</v>
       </c>
       <c r="B22">
-        <v>9538</v>
+        <v>10372</v>
       </c>
       <c r="C22" s="2">
-        <v>6.68</v>
+        <v>7.14</v>
       </c>
       <c r="D22">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="E22" s="3">
-        <v>8.6111111111111124E-2</v>
+        <v>9.6527777777777768E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43607</v>
+        <v>43591</v>
       </c>
       <c r="B23">
-        <v>8320</v>
+        <v>4821</v>
       </c>
       <c r="C23" s="2">
-        <v>5.72</v>
+        <v>3.4</v>
       </c>
       <c r="D23">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="E23" s="3">
-        <v>7.7083333333333337E-2</v>
+        <v>4.7222222222222221E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43608</v>
+        <v>43592</v>
       </c>
       <c r="B24">
-        <v>5077</v>
+        <v>5864</v>
       </c>
       <c r="C24" s="2">
-        <v>3.6</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D24">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E24" s="3">
-        <v>4.7222222222222221E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43609</v>
+        <v>43593</v>
       </c>
       <c r="B25">
-        <v>6878</v>
+        <v>9391</v>
       </c>
       <c r="C25" s="2">
-        <v>4.79</v>
+        <v>6.75</v>
       </c>
       <c r="D25">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E25" s="3">
-        <v>6.25E-2</v>
+        <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43610</v>
+        <v>43594</v>
       </c>
       <c r="B26">
-        <v>5757</v>
+        <v>8332</v>
       </c>
       <c r="C26" s="2">
-        <v>3.98</v>
+        <v>5.79</v>
       </c>
       <c r="D26">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="E26" s="3">
-        <v>6.0416666666666667E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43611</v>
+        <v>43595</v>
       </c>
       <c r="B27">
-        <v>12831</v>
+        <v>14848</v>
       </c>
       <c r="C27" s="2">
-        <v>9.5299999999999994</v>
+        <v>11.05</v>
       </c>
       <c r="D27">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="E27" s="3">
-        <v>0.10208333333333335</v>
+        <v>0.12013888888888889</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43612</v>
+        <v>43596</v>
       </c>
       <c r="B28">
-        <v>5539</v>
+        <v>9197</v>
       </c>
       <c r="C28" s="2">
-        <v>3.82</v>
+        <v>6.28</v>
       </c>
       <c r="D28">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="E28" s="3">
-        <v>5.5555555555555552E-2</v>
+        <v>9.5138888888888884E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43613</v>
+        <v>43597</v>
       </c>
       <c r="B29">
-        <v>5094</v>
+        <v>6248</v>
       </c>
       <c r="C29" s="2">
-        <v>3.58</v>
+        <v>4.26</v>
       </c>
       <c r="D29">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="E29" s="3">
-        <v>5.2777777777777778E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43614</v>
+        <v>43598</v>
       </c>
       <c r="B30">
-        <v>8910</v>
+        <v>13014</v>
       </c>
       <c r="C30" s="2">
-        <v>6.44</v>
+        <v>9.84</v>
       </c>
       <c r="D30">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="E30" s="3">
-        <v>7.3611111111111113E-2</v>
+        <v>0.10277777777777779</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43615</v>
+        <v>43599</v>
       </c>
       <c r="B31">
-        <v>4385</v>
+        <v>5143</v>
       </c>
       <c r="C31" s="2">
-        <v>3.1</v>
+        <v>3.62</v>
       </c>
       <c r="D31">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E31" s="3">
-        <v>3.888888888888889E-2</v>
+        <v>4.3055555555555562E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43616</v>
+        <v>43600</v>
       </c>
       <c r="B32">
-        <v>7107</v>
+        <v>5915</v>
       </c>
       <c r="C32" s="2">
-        <v>4.8899999999999997</v>
+        <v>4.3</v>
       </c>
       <c r="D32">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E32" s="3">
-        <v>7.013888888888889E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43617</v>
+        <v>43601</v>
       </c>
       <c r="B33">
-        <v>7501</v>
+        <v>10995</v>
       </c>
       <c r="C33" s="2">
-        <v>5.1100000000000003</v>
+        <v>8.51</v>
       </c>
       <c r="D33">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="E33" s="3">
-        <v>7.7777777777777779E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43618</v>
+        <v>43602</v>
       </c>
       <c r="B34">
-        <v>12424</v>
+        <v>7480</v>
       </c>
       <c r="C34" s="2">
-        <v>8.8800000000000008</v>
+        <v>5.43</v>
       </c>
       <c r="D34">
-        <v>348</v>
+        <v>215</v>
       </c>
       <c r="E34" s="3">
-        <v>0.10625</v>
+        <v>6.3194444444444442E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43619</v>
+        <v>43603</v>
       </c>
       <c r="B35">
-        <v>9283</v>
+        <v>13438</v>
       </c>
       <c r="C35" s="2">
-        <v>6.42</v>
+        <v>9.35</v>
       </c>
       <c r="D35">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="E35" s="3">
-        <v>8.8888888888888892E-2</v>
+        <v>0.12569444444444444</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43620</v>
+        <v>43604</v>
       </c>
       <c r="B36">
-        <v>9205</v>
+        <v>12407</v>
       </c>
       <c r="C36" s="2">
-        <v>6.39</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="D36">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="E36" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>0.1173611111111111</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43621</v>
+        <v>43605</v>
       </c>
       <c r="B37">
-        <v>11052</v>
+        <v>5705</v>
       </c>
       <c r="C37" s="2">
-        <v>7.89</v>
+        <v>3.95</v>
       </c>
       <c r="D37">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="E37" s="3">
-        <v>9.0972222222222218E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43622</v>
+        <v>43606</v>
       </c>
       <c r="B38">
-        <v>12021</v>
+        <v>9538</v>
       </c>
       <c r="C38" s="2">
-        <v>9.2100000000000009</v>
+        <v>6.68</v>
       </c>
       <c r="D38">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="E38" s="3">
-        <v>8.819444444444445E-2</v>
+        <v>8.6111111111111124E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43623</v>
+        <v>43607</v>
       </c>
       <c r="B39">
-        <v>11364</v>
+        <v>8320</v>
       </c>
       <c r="C39" s="2">
-        <v>7.97</v>
+        <v>5.72</v>
       </c>
       <c r="D39">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="E39" s="3">
-        <v>9.7222222222222224E-2</v>
+        <v>7.7083333333333337E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43624</v>
+        <v>43608</v>
       </c>
       <c r="B40">
-        <v>9154</v>
+        <v>5077</v>
       </c>
       <c r="C40" s="2">
-        <v>6.29</v>
+        <v>3.6</v>
       </c>
       <c r="D40">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="E40" s="3">
-        <v>8.6805555555555566E-2</v>
+        <v>4.7222222222222221E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43625</v>
+        <v>43609</v>
       </c>
       <c r="B41">
-        <v>8327</v>
+        <v>6878</v>
       </c>
       <c r="C41" s="2">
-        <v>5.68</v>
+        <v>4.79</v>
       </c>
       <c r="D41">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="E41" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43626</v>
+        <v>43610</v>
       </c>
       <c r="B42">
-        <v>6641</v>
+        <v>5757</v>
       </c>
       <c r="C42" s="2">
-        <v>4.82</v>
+        <v>3.98</v>
       </c>
       <c r="D42">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E42" s="3">
-        <v>5.486111111111111E-2</v>
+        <v>6.0416666666666667E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43627</v>
+        <v>43611</v>
       </c>
       <c r="B43">
-        <v>19682</v>
+        <v>12831</v>
       </c>
       <c r="C43" s="2">
-        <v>15.15</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D43">
-        <v>608</v>
+        <v>370</v>
       </c>
       <c r="E43" s="3">
-        <v>0.14791666666666667</v>
+        <v>0.10208333333333335</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43628</v>
+        <v>43612</v>
       </c>
       <c r="B44">
-        <v>5274</v>
+        <v>5539</v>
       </c>
       <c r="C44" s="2">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="D44">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E44" s="3">
-        <v>4.7916666666666663E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43629</v>
+        <v>43613</v>
       </c>
       <c r="B45">
-        <v>10912</v>
+        <v>5094</v>
       </c>
       <c r="C45" s="2">
-        <v>8.1</v>
+        <v>3.58</v>
       </c>
       <c r="D45">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="E45" s="3">
-        <v>8.7500000000000008E-2</v>
+        <v>5.2777777777777778E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43630</v>
+        <v>43614</v>
       </c>
       <c r="B46">
-        <v>15387</v>
+        <v>8910</v>
       </c>
       <c r="C46" s="2">
-        <v>11.92</v>
+        <v>6.44</v>
       </c>
       <c r="D46">
-        <v>510</v>
+        <v>233</v>
       </c>
       <c r="E46" s="3">
-        <v>0.11388888888888889</v>
+        <v>7.3611111111111113E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43631</v>
+        <v>43615</v>
       </c>
       <c r="B47">
-        <v>14261</v>
+        <v>4385</v>
       </c>
       <c r="C47" s="2">
-        <v>9.89</v>
+        <v>3.1</v>
       </c>
       <c r="D47">
-        <v>364</v>
+        <v>118</v>
       </c>
       <c r="E47" s="3">
-        <v>0.12986111111111112</v>
+        <v>3.888888888888889E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43632</v>
+        <v>43616</v>
       </c>
       <c r="B48">
-        <v>9048</v>
+        <v>7107</v>
       </c>
       <c r="C48" s="2">
-        <v>6.22</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D48">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="E48" s="3">
-        <v>8.9583333333333334E-2</v>
+        <v>7.013888888888889E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43633</v>
+        <v>43617</v>
       </c>
       <c r="B49">
-        <v>8919</v>
+        <v>7501</v>
       </c>
       <c r="C49" s="2">
-        <v>6.13</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="D49">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E49" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43634</v>
+        <v>43618</v>
       </c>
       <c r="B50">
-        <v>16154</v>
+        <v>12424</v>
       </c>
       <c r="C50" s="2">
-        <v>12.36</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D50">
-        <v>501</v>
+        <v>348</v>
       </c>
       <c r="E50" s="3">
-        <v>0.12847222222222224</v>
+        <v>0.10625</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43635</v>
+        <v>43619</v>
       </c>
       <c r="B51">
-        <v>10864</v>
+        <v>9283</v>
       </c>
       <c r="C51" s="2">
-        <v>8.4499999999999993</v>
+        <v>6.42</v>
       </c>
       <c r="D51">
-        <v>407</v>
+        <v>236</v>
       </c>
       <c r="E51" s="3">
-        <v>8.0555555555555561E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43636</v>
+        <v>43620</v>
       </c>
       <c r="B52">
-        <v>7191</v>
+        <v>9205</v>
       </c>
       <c r="C52" s="2">
-        <v>4.93</v>
+        <v>6.39</v>
       </c>
       <c r="D52">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="E52" s="3">
-        <v>6.5972222222222224E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43637</v>
+        <v>43621</v>
       </c>
       <c r="B53">
-        <v>15630</v>
+        <v>11052</v>
       </c>
       <c r="C53" s="2">
-        <v>12.32</v>
+        <v>7.89</v>
       </c>
       <c r="D53">
-        <v>589</v>
+        <v>290</v>
       </c>
       <c r="E53" s="3">
-        <v>0.11180555555555556</v>
+        <v>9.0972222222222218E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43638</v>
+        <v>43622</v>
       </c>
       <c r="B54">
-        <v>6975</v>
+        <v>12021</v>
       </c>
       <c r="C54" s="2">
-        <v>4.76</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D54">
-        <v>176</v>
+        <v>357</v>
       </c>
       <c r="E54" s="3">
-        <v>7.0833333333333331E-2</v>
+        <v>8.819444444444445E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43639</v>
+        <v>43623</v>
       </c>
       <c r="B55">
-        <v>14369</v>
+        <v>11364</v>
       </c>
       <c r="C55" s="2">
-        <v>9.81</v>
+        <v>7.97</v>
       </c>
       <c r="D55">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="E55" s="3">
-        <v>0.13055555555555556</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43640</v>
+        <v>43624</v>
       </c>
       <c r="B56">
-        <v>15567</v>
+        <v>9154</v>
       </c>
       <c r="C56" s="2">
-        <v>12.06</v>
+        <v>6.29</v>
       </c>
       <c r="D56">
-        <v>588</v>
+        <v>237</v>
       </c>
       <c r="E56" s="3">
-        <v>0.12291666666666667</v>
+        <v>8.6805555555555566E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43641</v>
+        <v>43625</v>
       </c>
       <c r="B57">
-        <v>4846</v>
+        <v>8327</v>
       </c>
       <c r="C57" s="2">
-        <v>3.47</v>
+        <v>5.68</v>
       </c>
       <c r="D57">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="E57" s="3">
-        <v>4.5833333333333337E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43642</v>
+        <v>43626</v>
       </c>
       <c r="B58">
-        <v>12159</v>
+        <v>6641</v>
       </c>
       <c r="C58" s="2">
-        <v>9.14</v>
+        <v>4.82</v>
       </c>
       <c r="D58">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="E58" s="3">
-        <v>9.8611111111111108E-2</v>
+        <v>5.486111111111111E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43643</v>
+        <v>43627</v>
       </c>
       <c r="B59">
-        <v>14604</v>
+        <v>19682</v>
       </c>
       <c r="C59" s="2">
-        <v>11.38</v>
+        <v>15.15</v>
       </c>
       <c r="D59">
-        <v>472</v>
+        <v>608</v>
       </c>
       <c r="E59" s="3">
-        <v>0.11180555555555556</v>
+        <v>0.14791666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43644</v>
+        <v>43628</v>
       </c>
       <c r="B60">
-        <v>9254</v>
+        <v>5274</v>
       </c>
       <c r="C60" s="2">
-        <v>6.48</v>
+        <v>3.75</v>
       </c>
       <c r="D60">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="E60" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>4.7916666666666663E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43645</v>
+        <v>43629</v>
       </c>
       <c r="B61">
-        <v>8637</v>
+        <v>10912</v>
       </c>
       <c r="C61" s="2">
-        <v>6.17</v>
+        <v>8.1</v>
       </c>
       <c r="D61">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="E61" s="3">
-        <v>7.9166666666666663E-2</v>
+        <v>8.7500000000000008E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43646</v>
+        <v>43630</v>
       </c>
       <c r="B62">
-        <v>9999</v>
+        <v>15387</v>
       </c>
       <c r="C62" s="2">
-        <v>6.84</v>
+        <v>11.92</v>
       </c>
       <c r="D62">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="E62" s="3">
-        <v>9.3055555555555558E-2</v>
+        <v>0.11388888888888889</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43647</v>
+        <v>43631</v>
       </c>
       <c r="B63">
-        <v>4503</v>
+        <v>14261</v>
       </c>
       <c r="C63" s="2">
-        <v>3.11</v>
+        <v>9.89</v>
       </c>
       <c r="D63">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="E63" s="3">
-        <v>4.5833333333333337E-2</v>
+        <v>0.12986111111111112</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43648</v>
+        <v>43632</v>
       </c>
       <c r="B64">
-        <v>7680</v>
+        <v>9048</v>
       </c>
       <c r="C64" s="2">
-        <v>5.48</v>
+        <v>6.22</v>
       </c>
       <c r="D64">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="E64" s="3">
-        <v>6.805555555555555E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43649</v>
+        <v>43633</v>
       </c>
       <c r="B65">
-        <v>14260</v>
+        <v>8919</v>
       </c>
       <c r="C65" s="2">
-        <v>10.51</v>
+        <v>6.13</v>
       </c>
       <c r="D65">
-        <v>419</v>
+        <v>240</v>
       </c>
       <c r="E65" s="3">
-        <v>0.11875000000000001</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43650</v>
+        <v>43634</v>
       </c>
       <c r="B66">
-        <v>7598</v>
+        <v>16154</v>
       </c>
       <c r="C66" s="2">
-        <v>5.29</v>
+        <v>12.36</v>
       </c>
       <c r="D66">
-        <v>190</v>
+        <v>501</v>
       </c>
       <c r="E66" s="3">
-        <v>6.8749999999999992E-2</v>
+        <v>0.12847222222222224</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43651</v>
+        <v>43635</v>
       </c>
       <c r="B67">
-        <v>7675</v>
+        <v>10864</v>
       </c>
       <c r="C67" s="2">
-        <v>5.29</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="D67">
-        <v>199</v>
+        <v>407</v>
       </c>
       <c r="E67" s="3">
-        <v>7.3611111111111113E-2</v>
+        <v>8.0555555555555561E-2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43652</v>
+        <v>43636</v>
       </c>
       <c r="B68">
-        <v>9504</v>
+        <v>7191</v>
       </c>
       <c r="C68" s="2">
-        <v>6.51</v>
+        <v>4.93</v>
       </c>
       <c r="D68">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="E68" s="3">
-        <v>8.9583333333333334E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43653</v>
+        <v>43637</v>
       </c>
       <c r="B69">
-        <v>12958</v>
+        <v>15630</v>
       </c>
       <c r="C69" s="2">
-        <v>8.99</v>
+        <v>12.32</v>
       </c>
       <c r="D69">
-        <v>326</v>
+        <v>589</v>
       </c>
       <c r="E69" s="3">
-        <v>0.12083333333333333</v>
+        <v>0.11180555555555556</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43654</v>
+        <v>43638</v>
       </c>
       <c r="B70">
-        <v>7076</v>
+        <v>6975</v>
       </c>
       <c r="C70" s="2">
-        <v>5.05</v>
+        <v>4.76</v>
       </c>
       <c r="D70">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E70" s="3">
-        <v>5.8333333333333327E-2</v>
+        <v>7.0833333333333331E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43655</v>
+        <v>43639</v>
       </c>
       <c r="B71">
-        <v>8128</v>
+        <v>14369</v>
       </c>
       <c r="C71" s="2">
-        <v>5.77</v>
+        <v>9.81</v>
       </c>
       <c r="D71">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="E71" s="3">
-        <v>6.8749999999999992E-2</v>
+        <v>0.13055555555555556</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43656</v>
+        <v>43640</v>
       </c>
       <c r="B72">
-        <v>8759</v>
+        <v>15567</v>
       </c>
       <c r="C72" s="2">
-        <v>5.98</v>
+        <v>12.06</v>
       </c>
       <c r="D72">
-        <v>231</v>
+        <v>588</v>
       </c>
       <c r="E72" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.12291666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43657</v>
+        <v>43641</v>
       </c>
       <c r="B73">
-        <v>14858</v>
+        <v>4846</v>
       </c>
       <c r="C73" s="2">
-        <v>11.91</v>
+        <v>3.47</v>
       </c>
       <c r="D73">
-        <v>515</v>
+        <v>131</v>
       </c>
       <c r="E73" s="3">
-        <v>0.11041666666666666</v>
+        <v>4.5833333333333337E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43658</v>
+        <v>43642</v>
       </c>
       <c r="B74">
-        <v>13808</v>
+        <v>12159</v>
       </c>
       <c r="C74" s="2">
-        <v>10.28</v>
+        <v>9.14</v>
       </c>
       <c r="D74">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="E74" s="3">
-        <v>0.10902777777777778</v>
+        <v>9.8611111111111108E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43659</v>
+        <v>43643</v>
       </c>
       <c r="B75">
-        <v>13603</v>
+        <v>14604</v>
       </c>
       <c r="C75" s="2">
-        <v>9.56</v>
+        <v>11.38</v>
       </c>
       <c r="D75">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="E75" s="3">
-        <v>0.12638888888888888</v>
+        <v>0.11180555555555556</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43660</v>
+        <v>43644</v>
       </c>
       <c r="B76">
-        <v>12206</v>
+        <v>9254</v>
       </c>
       <c r="C76" s="2">
-        <v>9.64</v>
+        <v>6.48</v>
       </c>
       <c r="D76">
-        <v>487</v>
+        <v>233</v>
       </c>
       <c r="E76" s="3">
-        <v>9.3055555555555558E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43661</v>
+        <v>43645</v>
       </c>
       <c r="B77">
-        <v>13146</v>
+        <v>8637</v>
       </c>
       <c r="C77" s="2">
-        <v>9.9</v>
+        <v>6.17</v>
       </c>
       <c r="D77">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="E77" s="3">
-        <v>0.10347222222222223</v>
+        <v>7.9166666666666663E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43662</v>
+        <v>43646</v>
       </c>
       <c r="B78">
-        <v>6195</v>
+        <v>9999</v>
       </c>
       <c r="C78" s="2">
-        <v>4.43</v>
+        <v>6.84</v>
       </c>
       <c r="D78">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="E78" s="3">
-        <v>5.4166666666666669E-2</v>
+        <v>9.3055555555555558E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43663</v>
+        <v>43647</v>
       </c>
       <c r="B79">
-        <v>4705</v>
+        <v>4503</v>
       </c>
       <c r="C79" s="2">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="D79">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E79" s="3">
-        <v>4.4444444444444446E-2</v>
+        <v>4.5833333333333337E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43664</v>
+        <v>43648</v>
       </c>
       <c r="B80">
-        <v>17696</v>
+        <v>7680</v>
       </c>
       <c r="C80" s="2">
-        <v>13.72</v>
+        <v>5.48</v>
       </c>
       <c r="D80">
-        <v>555</v>
+        <v>219</v>
       </c>
       <c r="E80" s="3">
-        <v>0.13263888888888889</v>
+        <v>6.805555555555555E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43665</v>
+        <v>43649</v>
       </c>
       <c r="B81">
-        <v>11402</v>
+        <v>14260</v>
       </c>
       <c r="C81" s="2">
-        <v>8.85</v>
+        <v>10.51</v>
       </c>
       <c r="D81">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E81" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>0.11875000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43666</v>
+        <v>43650</v>
       </c>
       <c r="B82">
-        <v>7350</v>
+        <v>7598</v>
       </c>
       <c r="C82" s="2">
-        <v>5</v>
+        <v>5.29</v>
       </c>
       <c r="D82">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E82" s="3">
-        <v>7.2222222222222229E-2</v>
+        <v>6.8749999999999992E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43667</v>
+        <v>43651</v>
       </c>
       <c r="B83">
-        <v>14483</v>
+        <v>7675</v>
       </c>
       <c r="C83" s="2">
-        <v>11.63</v>
+        <v>5.29</v>
       </c>
       <c r="D83">
-        <v>573</v>
+        <v>199</v>
       </c>
       <c r="E83" s="3">
-        <v>0.10486111111111111</v>
+        <v>7.3611111111111113E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43668</v>
+        <v>43652</v>
       </c>
       <c r="B84">
-        <v>5563</v>
+        <v>9504</v>
       </c>
       <c r="C84" s="2">
-        <v>4.13</v>
+        <v>6.51</v>
       </c>
       <c r="D84">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="E84" s="3">
-        <v>5.2777777777777778E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43669</v>
+        <v>43653</v>
       </c>
       <c r="B85">
-        <v>5921</v>
+        <v>12958</v>
       </c>
       <c r="C85" s="2">
-        <v>4.1100000000000003</v>
+        <v>8.99</v>
       </c>
       <c r="D85">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="E85" s="3">
-        <v>5.6250000000000001E-2</v>
+        <v>0.12083333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43670</v>
+        <v>43654</v>
       </c>
       <c r="B86">
-        <v>4732</v>
+        <v>7076</v>
       </c>
       <c r="C86" s="2">
-        <v>3.31</v>
+        <v>5.05</v>
       </c>
       <c r="D86">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="E86" s="3">
-        <v>4.6527777777777779E-2</v>
+        <v>5.8333333333333327E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43671</v>
+        <v>43655</v>
       </c>
       <c r="B87">
-        <v>8285</v>
+        <v>8128</v>
       </c>
       <c r="C87" s="2">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="D87">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E87" s="3">
-        <v>7.6388888888888895E-2</v>
+        <v>6.8749999999999992E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43672</v>
+        <v>43656</v>
       </c>
       <c r="B88">
-        <v>19784</v>
+        <v>8759</v>
       </c>
       <c r="C88" s="2">
-        <v>15.49</v>
+        <v>5.98</v>
       </c>
       <c r="D88">
-        <v>638</v>
+        <v>231</v>
       </c>
       <c r="E88" s="3">
-        <v>0.14722222222222223</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43673</v>
+        <v>43657</v>
       </c>
       <c r="B89">
-        <v>10019</v>
+        <v>14858</v>
       </c>
       <c r="C89" s="2">
-        <v>7.01</v>
+        <v>11.91</v>
       </c>
       <c r="D89">
-        <v>265</v>
+        <v>515</v>
       </c>
       <c r="E89" s="3">
-        <v>9.375E-2</v>
+        <v>0.11041666666666666</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43674</v>
+        <v>43658</v>
       </c>
       <c r="B90">
-        <v>11781</v>
+        <v>13808</v>
       </c>
       <c r="C90" s="2">
-        <v>8.0299999999999994</v>
+        <v>10.28</v>
       </c>
       <c r="D90">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="E90" s="3">
-        <v>0.11180555555555556</v>
+        <v>0.10902777777777778</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43675</v>
+        <v>43659</v>
       </c>
       <c r="B91">
-        <v>12201</v>
+        <v>13603</v>
       </c>
       <c r="C91" s="2">
-        <v>9.4700000000000006</v>
+        <v>9.56</v>
       </c>
       <c r="D91">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="E91" s="3">
-        <v>8.8888888888888892E-2</v>
+        <v>0.12638888888888888</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43676</v>
+        <v>43660</v>
       </c>
       <c r="B92">
-        <v>9824</v>
+        <v>12206</v>
       </c>
       <c r="C92" s="2">
-        <v>6.98</v>
+        <v>9.64</v>
       </c>
       <c r="D92">
-        <v>257</v>
+        <v>487</v>
       </c>
       <c r="E92" s="3">
-        <v>8.2638888888888887E-2</v>
+        <v>9.3055555555555558E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43677</v>
+        <v>43661</v>
       </c>
       <c r="B93">
-        <v>7330</v>
+        <v>13146</v>
       </c>
       <c r="C93" s="2">
-        <v>5.16</v>
+        <v>9.9</v>
       </c>
       <c r="D93">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="E93" s="3">
-        <v>6.6666666666666666E-2</v>
+        <v>0.10347222222222223</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43678</v>
+        <v>43662</v>
       </c>
       <c r="B94">
-        <v>7907</v>
+        <v>6195</v>
       </c>
       <c r="C94" s="2">
-        <v>5.77</v>
+        <v>4.43</v>
       </c>
       <c r="D94">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="E94" s="3">
-        <v>6.6666666666666666E-2</v>
+        <v>5.4166666666666669E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43679</v>
+        <v>43663</v>
       </c>
       <c r="B95">
-        <v>9536</v>
+        <v>4705</v>
       </c>
       <c r="C95" s="2">
-        <v>6.64</v>
+        <v>3.37</v>
       </c>
       <c r="D95">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="E95" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43680</v>
+        <v>43664</v>
       </c>
       <c r="B96">
-        <v>10848</v>
+        <v>17696</v>
       </c>
       <c r="C96" s="2">
-        <v>7.56</v>
+        <v>13.72</v>
       </c>
       <c r="D96">
-        <v>291</v>
+        <v>555</v>
       </c>
       <c r="E96" s="3">
-        <v>9.930555555555555E-2</v>
+        <v>0.13263888888888889</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43681</v>
+        <v>43665</v>
       </c>
       <c r="B97">
-        <v>7836</v>
+        <v>11402</v>
       </c>
       <c r="C97" s="2">
-        <v>5.43</v>
+        <v>8.85</v>
       </c>
       <c r="D97">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="E97" s="3">
-        <v>8.0555555555555561E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43682</v>
+        <v>43666</v>
       </c>
       <c r="B98">
-        <v>5168</v>
+        <v>7350</v>
       </c>
       <c r="C98" s="2">
-        <v>3.56</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="E98" s="3">
-        <v>4.9305555555555554E-2</v>
+        <v>7.2222222222222229E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43683</v>
+        <v>43667</v>
       </c>
       <c r="B99">
-        <v>8984</v>
+        <v>14483</v>
       </c>
       <c r="C99" s="2">
-        <v>6.33</v>
+        <v>11.63</v>
       </c>
       <c r="D99">
-        <v>229</v>
+        <v>573</v>
       </c>
       <c r="E99" s="3">
-        <v>7.7083333333333337E-2</v>
+        <v>0.10486111111111111</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43684</v>
+        <v>43668</v>
       </c>
       <c r="B100">
-        <v>7257</v>
+        <v>5563</v>
       </c>
       <c r="C100" s="2">
-        <v>5.13</v>
+        <v>4.13</v>
       </c>
       <c r="D100">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E100" s="3">
-        <v>6.458333333333334E-2</v>
+        <v>5.2777777777777778E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43685</v>
+        <v>43669</v>
       </c>
       <c r="B101">
-        <v>8133</v>
+        <v>5921</v>
       </c>
       <c r="C101" s="2">
-        <v>5.6</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="D101">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E101" s="3">
-        <v>7.7083333333333337E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43686</v>
+        <v>43670</v>
       </c>
       <c r="B102">
-        <v>8011</v>
+        <v>4732</v>
       </c>
       <c r="C102" s="2">
-        <v>5.59</v>
+        <v>3.31</v>
       </c>
       <c r="D102">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="E102" s="3">
-        <v>7.2916666666666671E-2</v>
+        <v>4.6527777777777779E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43687</v>
+        <v>43671</v>
       </c>
       <c r="B103">
-        <v>11595</v>
+        <v>8285</v>
       </c>
       <c r="C103" s="2">
-        <v>7.96</v>
+        <v>5.73</v>
       </c>
       <c r="D103">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="E103" s="3">
-        <v>0.10833333333333334</v>
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43688</v>
+        <v>43672</v>
       </c>
       <c r="B104">
-        <v>14159</v>
+        <v>19784</v>
       </c>
       <c r="C104" s="2">
-        <v>10.76</v>
+        <v>15.49</v>
       </c>
       <c r="D104">
-        <v>507</v>
+        <v>638</v>
       </c>
       <c r="E104" s="3">
-        <v>0.11458333333333333</v>
+        <v>0.14722222222222223</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43689</v>
+        <v>43673</v>
       </c>
       <c r="B105">
-        <v>7048</v>
+        <v>10019</v>
       </c>
       <c r="C105" s="2">
-        <v>4.8899999999999997</v>
+        <v>7.01</v>
       </c>
       <c r="D105">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="E105" s="3">
-        <v>6.458333333333334E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43690</v>
+        <v>43674</v>
       </c>
       <c r="B106">
-        <v>11002</v>
+        <v>11781</v>
       </c>
       <c r="C106" s="2">
-        <v>8.35</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="D106">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="E106" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>0.11180555555555556</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43691</v>
+        <v>43675</v>
       </c>
       <c r="B107">
-        <v>6220</v>
+        <v>12201</v>
       </c>
       <c r="C107" s="2">
-        <v>4.3099999999999996</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="D107">
-        <v>164</v>
+        <v>460</v>
       </c>
       <c r="E107" s="3">
-        <v>6.0416666666666667E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43692</v>
+        <v>43676</v>
       </c>
       <c r="B108">
-        <v>14406</v>
+        <v>9824</v>
       </c>
       <c r="C108" s="2">
-        <v>9.9600000000000009</v>
+        <v>6.98</v>
       </c>
       <c r="D108">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="E108" s="3">
-        <v>0.12569444444444444</v>
+        <v>8.2638888888888887E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43693</v>
+        <v>43677</v>
       </c>
       <c r="B109">
-        <v>23369</v>
+        <v>7330</v>
       </c>
       <c r="C109" s="2">
-        <v>19.28</v>
+        <v>5.16</v>
       </c>
       <c r="D109">
-        <v>937</v>
+        <v>197</v>
       </c>
       <c r="E109" s="3">
-        <v>0.15763888888888888</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43694</v>
+        <v>43678</v>
       </c>
       <c r="B110">
-        <v>9821</v>
+        <v>7907</v>
       </c>
       <c r="C110" s="2">
-        <v>6.7</v>
+        <v>5.77</v>
       </c>
       <c r="D110">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E110" s="3">
-        <v>9.5833333333333326E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43695</v>
+        <v>43679</v>
       </c>
       <c r="B111">
-        <v>8000</v>
+        <v>9536</v>
       </c>
       <c r="C111" s="2">
-        <v>5.45</v>
+        <v>6.64</v>
       </c>
       <c r="D111">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E111" s="3">
-        <v>8.0555555555555561E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43696</v>
+        <v>43680</v>
       </c>
       <c r="B112">
-        <v>16993</v>
+        <v>10848</v>
       </c>
       <c r="C112" s="2">
-        <v>11.67</v>
+        <v>7.56</v>
       </c>
       <c r="D112">
-        <v>409</v>
+        <v>291</v>
       </c>
       <c r="E112" s="3">
-        <v>0.15208333333333332</v>
+        <v>9.930555555555555E-2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43697</v>
+        <v>43681</v>
       </c>
       <c r="B113">
-        <v>12580</v>
+        <v>7836</v>
       </c>
       <c r="C113" s="2">
-        <v>8.6300000000000008</v>
+        <v>5.43</v>
       </c>
       <c r="D113">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="E113" s="3">
-        <v>0.11666666666666665</v>
+        <v>8.0555555555555561E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43698</v>
+        <v>43682</v>
       </c>
       <c r="B114">
-        <v>11545</v>
+        <v>5168</v>
       </c>
       <c r="C114" s="2">
-        <v>7.92</v>
+        <v>3.56</v>
       </c>
       <c r="D114">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="E114" s="3">
-        <v>0.10694444444444444</v>
+        <v>4.9305555555555554E-2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43699</v>
+        <v>43683</v>
       </c>
       <c r="B115">
-        <v>16459</v>
+        <v>8984</v>
       </c>
       <c r="C115" s="2">
-        <v>11.36</v>
+        <v>6.33</v>
       </c>
       <c r="D115">
-        <v>397</v>
+        <v>229</v>
       </c>
       <c r="E115" s="3">
-        <v>0.15416666666666667</v>
+        <v>7.7083333333333337E-2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43700</v>
+        <v>43684</v>
       </c>
       <c r="B116">
-        <v>14457</v>
+        <v>7257</v>
       </c>
       <c r="C116" s="2">
-        <v>9.92</v>
+        <v>5.13</v>
       </c>
       <c r="D116">
-        <v>351</v>
+        <v>192</v>
       </c>
       <c r="E116" s="3">
-        <v>0.12847222222222224</v>
+        <v>6.458333333333334E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43701</v>
+        <v>43685</v>
       </c>
       <c r="B117">
-        <v>13240</v>
+        <v>8133</v>
       </c>
       <c r="C117" s="2">
-        <v>9.07</v>
+        <v>5.6</v>
       </c>
       <c r="D117">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="E117" s="3">
-        <v>0.12430555555555556</v>
+        <v>7.7083333333333337E-2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43702</v>
+        <v>43686</v>
       </c>
       <c r="B118">
-        <v>12446</v>
+        <v>8011</v>
       </c>
       <c r="C118" s="2">
-        <v>8.56</v>
+        <v>5.59</v>
       </c>
       <c r="D118">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="E118" s="3">
-        <v>0.11805555555555557</v>
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43703</v>
+        <v>43687</v>
       </c>
       <c r="B119">
-        <v>10395</v>
+        <v>11595</v>
       </c>
       <c r="C119" s="2">
-        <v>7.27</v>
+        <v>7.96</v>
       </c>
       <c r="D119">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E119" s="3">
-        <v>9.7222222222222224E-2</v>
+        <v>0.10833333333333334</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43704</v>
+        <v>43688</v>
       </c>
       <c r="B120">
-        <v>9326</v>
+        <v>14159</v>
       </c>
       <c r="C120" s="2">
-        <v>7.05</v>
+        <v>10.76</v>
       </c>
       <c r="D120">
-        <v>280</v>
+        <v>507</v>
       </c>
       <c r="E120" s="3">
-        <v>7.3611111111111113E-2</v>
+        <v>0.11458333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43705</v>
+        <v>43689</v>
       </c>
       <c r="B121">
-        <v>7522</v>
+        <v>7048</v>
       </c>
       <c r="C121" s="2">
-        <v>5.26</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D121">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E121" s="3">
-        <v>6.805555555555555E-2</v>
+        <v>6.458333333333334E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43706</v>
+        <v>43690</v>
       </c>
       <c r="B122">
-        <v>16127</v>
+        <v>11002</v>
       </c>
       <c r="C122" s="2">
-        <v>12.48</v>
+        <v>8.35</v>
       </c>
       <c r="D122">
-        <v>488</v>
+        <v>337</v>
       </c>
       <c r="E122" s="3">
-        <v>0.12083333333333333</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43707</v>
+        <v>43691</v>
       </c>
       <c r="B123">
-        <v>10763</v>
+        <v>6220</v>
       </c>
       <c r="C123" s="2">
-        <v>7.73</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="D123">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="E123" s="3">
-        <v>9.0277777777777776E-2</v>
+        <v>6.0416666666666667E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43708</v>
+        <v>43692</v>
       </c>
       <c r="B124">
-        <v>9550</v>
+        <v>14406</v>
       </c>
       <c r="C124" s="2">
-        <v>6.53</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D124">
-        <v>239</v>
+        <v>362</v>
       </c>
       <c r="E124" s="3">
-        <v>8.9583333333333334E-2</v>
+        <v>0.12569444444444444</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43709</v>
+        <v>43693</v>
       </c>
       <c r="B125">
-        <v>15656</v>
+        <v>23369</v>
       </c>
       <c r="C125" s="2">
-        <v>11.68</v>
+        <v>19.28</v>
       </c>
       <c r="D125">
-        <v>525</v>
+        <v>937</v>
       </c>
       <c r="E125" s="3">
-        <v>0.12291666666666667</v>
+        <v>0.15763888888888888</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43710</v>
+        <v>43694</v>
       </c>
       <c r="B126">
-        <v>8660</v>
+        <v>9821</v>
       </c>
       <c r="C126" s="2">
-        <v>5.96</v>
+        <v>6.7</v>
       </c>
       <c r="D126">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E126" s="3">
-        <v>8.6111111111111124E-2</v>
+        <v>9.5833333333333326E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43711</v>
+        <v>43695</v>
       </c>
       <c r="B127">
-        <v>10752</v>
+        <v>8000</v>
       </c>
       <c r="C127" s="2">
-        <v>7.67</v>
+        <v>5.45</v>
       </c>
       <c r="D127">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="E127" s="3">
-        <v>8.9583333333333334E-2</v>
+        <v>8.0555555555555561E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43712</v>
+        <v>43696</v>
       </c>
       <c r="B128">
-        <v>16452</v>
+        <v>16993</v>
       </c>
       <c r="C128" s="2">
-        <v>12.67</v>
+        <v>11.67</v>
       </c>
       <c r="D128">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="E128" s="3">
-        <v>0.12638888888888888</v>
+        <v>0.15208333333333332</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43713</v>
+        <v>43697</v>
       </c>
       <c r="B129">
-        <v>13831</v>
+        <v>12580</v>
       </c>
       <c r="C129" s="2">
-        <v>9.75</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="D129">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="E129" s="3">
-        <v>0.125</v>
+        <v>0.11666666666666665</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43714</v>
+        <v>43698</v>
       </c>
       <c r="B130">
-        <v>12378</v>
+        <v>11545</v>
       </c>
       <c r="C130" s="2">
-        <v>9.6199999999999992</v>
+        <v>7.92</v>
       </c>
       <c r="D130">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="E130" s="3">
-        <v>9.375E-2</v>
+        <v>0.10694444444444444</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43715</v>
+        <v>43699</v>
       </c>
       <c r="B131">
-        <v>3521</v>
+        <v>16459</v>
       </c>
       <c r="C131" s="2">
-        <v>2.39</v>
+        <v>11.36</v>
       </c>
       <c r="D131">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="E131" s="3">
-        <v>3.888888888888889E-2</v>
+        <v>0.15416666666666667</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43716</v>
+        <v>43700</v>
       </c>
       <c r="B132">
-        <v>20517</v>
+        <v>14457</v>
       </c>
       <c r="C132" s="2">
-        <v>15.98</v>
+        <v>9.92</v>
       </c>
       <c r="D132">
-        <v>749</v>
+        <v>351</v>
       </c>
       <c r="E132" s="3">
-        <v>0.15625</v>
+        <v>0.12847222222222224</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43717</v>
+        <v>43701</v>
       </c>
       <c r="B133">
-        <v>11786</v>
+        <v>13240</v>
       </c>
       <c r="C133" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.07</v>
       </c>
       <c r="D133">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E133" s="3">
-        <v>9.5833333333333326E-2</v>
+        <v>0.12430555555555556</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43718</v>
+        <v>43702</v>
       </c>
       <c r="B134">
-        <v>10890</v>
+        <v>12446</v>
       </c>
       <c r="C134" s="2">
-        <v>8.32</v>
+        <v>8.56</v>
       </c>
       <c r="D134">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E134" s="3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.11805555555555557</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43719</v>
+        <v>43703</v>
       </c>
       <c r="B135">
-        <v>8101</v>
+        <v>10395</v>
       </c>
       <c r="C135" s="2">
-        <v>6.25</v>
+        <v>7.27</v>
       </c>
       <c r="D135">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="E135" s="3">
-        <v>6.3194444444444442E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43720</v>
+        <v>43704</v>
       </c>
       <c r="B136">
-        <v>5478</v>
+        <v>9326</v>
       </c>
       <c r="C136" s="2">
-        <v>3.83</v>
+        <v>7.05</v>
       </c>
       <c r="D136">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="E136" s="3">
-        <v>5.2083333333333336E-2</v>
+        <v>7.3611111111111113E-2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43721</v>
+        <v>43705</v>
       </c>
       <c r="B137">
-        <v>6193</v>
+        <v>7522</v>
       </c>
       <c r="C137" s="2">
-        <v>4.3600000000000003</v>
+        <v>5.26</v>
       </c>
       <c r="D137">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="E137" s="3">
-        <v>5.9722222222222225E-2</v>
+        <v>6.805555555555555E-2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43722</v>
+        <v>43706</v>
       </c>
       <c r="B138">
-        <v>7578</v>
+        <v>16127</v>
       </c>
       <c r="C138" s="2">
-        <v>5.18</v>
+        <v>12.48</v>
       </c>
       <c r="D138">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="E138" s="3">
-        <v>7.7083333333333337E-2</v>
+        <v>0.12083333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43723</v>
+        <v>43707</v>
       </c>
       <c r="B139">
-        <v>10535</v>
+        <v>10763</v>
       </c>
       <c r="C139" s="2">
-        <v>8.1300000000000008</v>
+        <v>7.73</v>
       </c>
       <c r="D139">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="E139" s="3">
-        <v>9.2361111111111116E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43724</v>
+        <v>43708</v>
       </c>
       <c r="B140">
-        <v>5641</v>
+        <v>9550</v>
       </c>
       <c r="C140" s="2">
-        <v>3.91</v>
+        <v>6.53</v>
       </c>
       <c r="D140">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="E140" s="3">
-        <v>5.1388888888888894E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43725</v>
+        <v>43709</v>
       </c>
       <c r="B141">
-        <v>4521</v>
+        <v>15656</v>
       </c>
       <c r="C141" s="2">
-        <v>3.24</v>
+        <v>11.68</v>
       </c>
       <c r="D141">
-        <v>124</v>
+        <v>525</v>
       </c>
       <c r="E141" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>0.12291666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43726</v>
+        <v>43710</v>
       </c>
       <c r="B142">
-        <v>5891</v>
+        <v>8660</v>
       </c>
       <c r="C142" s="2">
-        <v>4.01</v>
+        <v>5.96</v>
       </c>
       <c r="D142">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="E142" s="3">
-        <v>5.9027777777777783E-2</v>
+        <v>8.6111111111111124E-2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43727</v>
+        <v>43711</v>
       </c>
       <c r="B143">
-        <v>6417</v>
+        <v>10752</v>
       </c>
       <c r="C143" s="2">
-        <v>4.5</v>
+        <v>7.67</v>
       </c>
       <c r="D143">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="E143" s="3">
-        <v>5.8333333333333327E-2</v>
+        <v>8.9583333333333334E-2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43728</v>
+        <v>43712</v>
       </c>
       <c r="B144">
-        <v>6826</v>
+        <v>16452</v>
       </c>
       <c r="C144" s="2">
-        <v>4.79</v>
+        <v>12.67</v>
       </c>
       <c r="D144">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="E144" s="3">
-        <v>6.458333333333334E-2</v>
+        <v>0.12638888888888888</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43729</v>
+        <v>43713</v>
       </c>
       <c r="B145">
-        <v>6608</v>
+        <v>13831</v>
       </c>
       <c r="C145" s="2">
-        <v>4.51</v>
+        <v>9.75</v>
       </c>
       <c r="D145">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="E145" s="3">
-        <v>6.5277777777777782E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43730</v>
+        <v>43714</v>
       </c>
       <c r="B146">
-        <v>8769</v>
+        <v>12378</v>
       </c>
       <c r="C146" s="2">
-        <v>6.06</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="D146">
-        <v>232</v>
+        <v>397</v>
       </c>
       <c r="E146" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43731</v>
+        <v>43715</v>
       </c>
       <c r="B147">
-        <v>9193</v>
+        <v>3521</v>
       </c>
       <c r="C147" s="2">
-        <v>6.5</v>
+        <v>2.39</v>
       </c>
       <c r="D147">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="E147" s="3">
-        <v>8.1250000000000003E-2</v>
+        <v>3.888888888888889E-2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43732</v>
+        <v>43716</v>
       </c>
       <c r="B148">
-        <v>10164</v>
+        <v>20517</v>
       </c>
       <c r="C148" s="2">
-        <v>7.28</v>
+        <v>15.98</v>
       </c>
       <c r="D148">
-        <v>272</v>
+        <v>749</v>
       </c>
       <c r="E148" s="3">
-        <v>8.7500000000000008E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43733</v>
+        <v>43717</v>
       </c>
       <c r="B149">
-        <v>9499</v>
+        <v>11786</v>
       </c>
       <c r="C149" s="2">
-        <v>6.62</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D149">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="E149" s="3">
-        <v>8.4027777777777771E-2</v>
+        <v>9.5833333333333326E-2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43734</v>
+        <v>43718</v>
       </c>
       <c r="B150">
-        <v>12671</v>
+        <v>10890</v>
       </c>
       <c r="C150" s="2">
-        <v>9.56</v>
+        <v>8.32</v>
       </c>
       <c r="D150">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="E150" s="3">
-        <v>0.10069444444444443</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43735</v>
+        <v>43719</v>
       </c>
       <c r="B151">
-        <v>9611</v>
+        <v>8101</v>
       </c>
       <c r="C151" s="2">
-        <v>6.64</v>
+        <v>6.25</v>
       </c>
       <c r="D151">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E151" s="3">
-        <v>9.0277777777777776E-2</v>
+        <v>6.3194444444444442E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43736</v>
+        <v>43720</v>
       </c>
       <c r="B152">
-        <v>11032</v>
+        <v>5478</v>
       </c>
       <c r="C152" s="2">
-        <v>7.72</v>
+        <v>3.83</v>
       </c>
       <c r="D152">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="E152" s="3">
-        <v>0.10277777777777779</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43737</v>
+        <v>43721</v>
       </c>
       <c r="B153">
-        <v>33493</v>
+        <v>6193</v>
       </c>
       <c r="C153" s="2">
-        <v>24.87</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="D153">
-        <v>915</v>
+        <v>167</v>
       </c>
       <c r="E153" s="3">
-        <v>0.25625000000000003</v>
+        <v>5.9722222222222225E-2</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43738</v>
+        <v>43722</v>
       </c>
       <c r="B154">
-        <v>17547</v>
+        <v>7578</v>
       </c>
       <c r="C154" s="2">
-        <v>13.08</v>
+        <v>5.18</v>
       </c>
       <c r="D154">
-        <v>478</v>
+        <v>199</v>
       </c>
       <c r="E154" s="3">
-        <v>0.13541666666666666</v>
+        <v>7.7083333333333337E-2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43739</v>
+        <v>43723</v>
       </c>
       <c r="B155">
-        <v>18412</v>
+        <v>10535</v>
       </c>
       <c r="C155" s="2">
-        <v>13.67</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="D155">
-        <v>500</v>
+        <v>354</v>
       </c>
       <c r="E155" s="3">
-        <v>0.14097222222222222</v>
+        <v>9.2361111111111116E-2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43740</v>
+        <v>43724</v>
       </c>
       <c r="B156">
-        <v>9715</v>
+        <v>5641</v>
       </c>
       <c r="C156" s="2">
-        <v>6.82</v>
+        <v>3.91</v>
       </c>
       <c r="D156">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="E156" s="3">
-        <v>8.4722222222222213E-2</v>
+        <v>5.1388888888888894E-2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43741</v>
+        <v>43725</v>
       </c>
       <c r="B157">
-        <v>11690</v>
+        <v>4521</v>
       </c>
       <c r="C157" s="2">
-        <v>9.0299999999999994</v>
+        <v>3.24</v>
       </c>
       <c r="D157">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="E157" s="3">
-        <v>9.0277777777777776E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43742</v>
+        <v>43726</v>
       </c>
       <c r="B158">
-        <v>11910</v>
+        <v>5891</v>
       </c>
       <c r="C158" s="2">
-        <v>9.07</v>
+        <v>4.01</v>
       </c>
       <c r="D158">
-        <v>381</v>
+        <v>163</v>
       </c>
       <c r="E158" s="3">
-        <v>9.375E-2</v>
+        <v>5.9027777777777783E-2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43743</v>
+        <v>43727</v>
       </c>
       <c r="B159">
-        <v>28848</v>
+        <v>6417</v>
       </c>
       <c r="C159" s="2">
-        <v>19.88</v>
+        <v>4.5</v>
       </c>
       <c r="D159">
-        <v>702</v>
+        <v>174</v>
       </c>
       <c r="E159" s="3">
-        <v>0.23958333333333334</v>
+        <v>5.8333333333333327E-2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43744</v>
+        <v>43728</v>
       </c>
       <c r="B160">
-        <v>17199</v>
+        <v>6826</v>
       </c>
       <c r="C160" s="2">
-        <v>11.99</v>
+        <v>4.79</v>
       </c>
       <c r="D160">
-        <v>425</v>
+        <v>177</v>
       </c>
       <c r="E160" s="3">
-        <v>0.15069444444444444</v>
+        <v>6.458333333333334E-2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43745</v>
+        <v>43729</v>
       </c>
       <c r="B161">
-        <v>9322</v>
+        <v>6608</v>
       </c>
       <c r="C161" s="2">
-        <v>6.5</v>
+        <v>4.51</v>
       </c>
       <c r="D161">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="E161" s="3">
-        <v>9.1666666666666674E-2</v>
+        <v>6.5277777777777782E-2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43746</v>
+        <v>43730</v>
       </c>
       <c r="B162">
-        <v>7865</v>
+        <v>8769</v>
       </c>
       <c r="C162" s="2">
-        <v>5.51</v>
+        <v>6.06</v>
       </c>
       <c r="D162">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="E162" s="3">
-        <v>6.9444444444444434E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43747</v>
+        <v>43731</v>
       </c>
       <c r="B163">
-        <v>9593</v>
+        <v>9193</v>
       </c>
       <c r="C163" s="2">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="D163">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E163" s="3">
         <v>8.1250000000000003E-2</v>
@@ -3647,322 +3647,322 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43748</v>
+        <v>43732</v>
       </c>
       <c r="B164">
-        <v>14311</v>
+        <v>10164</v>
       </c>
       <c r="C164" s="2">
-        <v>10.34</v>
+        <v>7.28</v>
       </c>
       <c r="D164">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="E164" s="3">
-        <v>0.12291666666666667</v>
+        <v>8.7500000000000008E-2</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43749</v>
+        <v>43733</v>
       </c>
       <c r="B165">
-        <v>7927</v>
+        <v>9499</v>
       </c>
       <c r="C165" s="2">
-        <v>5.57</v>
+        <v>6.62</v>
       </c>
       <c r="D165">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="E165" s="3">
-        <v>6.8749999999999992E-2</v>
+        <v>8.4027777777777771E-2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43750</v>
+        <v>43734</v>
       </c>
       <c r="B166">
-        <v>4844</v>
+        <v>12671</v>
       </c>
       <c r="C166" s="2">
-        <v>3.29</v>
+        <v>9.56</v>
       </c>
       <c r="D166">
-        <v>139</v>
+        <v>370</v>
       </c>
       <c r="E166" s="3">
-        <v>5.2083333333333336E-2</v>
+        <v>0.10069444444444443</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43751</v>
+        <v>43735</v>
       </c>
       <c r="B167">
-        <v>5501</v>
+        <v>9611</v>
       </c>
       <c r="C167" s="2">
-        <v>3.77</v>
+        <v>6.64</v>
       </c>
       <c r="D167">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="E167" s="3">
-        <v>5.6944444444444443E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43752</v>
+        <v>43736</v>
       </c>
       <c r="B168">
-        <v>7681</v>
+        <v>11032</v>
       </c>
       <c r="C168" s="2">
-        <v>5.43</v>
+        <v>7.72</v>
       </c>
       <c r="D168">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="E168" s="3">
-        <v>6.6666666666666666E-2</v>
+        <v>0.10277777777777779</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43753</v>
+        <v>43737</v>
       </c>
       <c r="B169">
-        <v>5909</v>
+        <v>33493</v>
       </c>
       <c r="C169" s="2">
-        <v>4.24</v>
+        <v>24.87</v>
       </c>
       <c r="D169">
-        <v>161</v>
+        <v>915</v>
       </c>
       <c r="E169" s="3">
-        <v>5.2777777777777778E-2</v>
+        <v>0.25625000000000003</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43754</v>
+        <v>43738</v>
       </c>
       <c r="B170">
-        <v>8576</v>
+        <v>17547</v>
       </c>
       <c r="C170" s="2">
-        <v>5.95</v>
+        <v>13.08</v>
       </c>
       <c r="D170">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="E170" s="3">
-        <v>7.9861111111111105E-2</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43755</v>
+        <v>43739</v>
       </c>
       <c r="B171">
-        <v>8171</v>
+        <v>18412</v>
       </c>
       <c r="C171" s="2">
-        <v>6.36</v>
+        <v>13.67</v>
       </c>
       <c r="D171">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="E171" s="3">
-        <v>7.013888888888889E-2</v>
+        <v>0.14097222222222222</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43756</v>
+        <v>43740</v>
       </c>
       <c r="B172">
-        <v>8067</v>
+        <v>9715</v>
       </c>
       <c r="C172" s="2">
-        <v>5.64</v>
+        <v>6.82</v>
       </c>
       <c r="D172">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="E172" s="3">
-        <v>7.2222222222222229E-2</v>
+        <v>8.4722222222222213E-2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43757</v>
+        <v>43741</v>
       </c>
       <c r="B173">
-        <v>7085</v>
+        <v>11690</v>
       </c>
       <c r="C173" s="2">
-        <v>4.83</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="D173">
-        <v>179</v>
+        <v>372</v>
       </c>
       <c r="E173" s="3">
-        <v>6.9444444444444434E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43758</v>
+        <v>43742</v>
       </c>
       <c r="B174">
-        <v>11059</v>
+        <v>11910</v>
       </c>
       <c r="C174" s="2">
-        <v>8.6</v>
+        <v>9.07</v>
       </c>
       <c r="D174">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="E174" s="3">
-        <v>8.8888888888888892E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43759</v>
+        <v>43743</v>
       </c>
       <c r="B175">
-        <v>10083</v>
+        <v>28848</v>
       </c>
       <c r="C175" s="2">
-        <v>7.72</v>
+        <v>19.88</v>
       </c>
       <c r="D175">
-        <v>306</v>
+        <v>702</v>
       </c>
       <c r="E175" s="3">
-        <v>8.0555555555555561E-2</v>
+        <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43760</v>
+        <v>43744</v>
       </c>
       <c r="B176">
-        <v>7456</v>
+        <v>17199</v>
       </c>
       <c r="C176" s="2">
-        <v>5.24</v>
+        <v>11.99</v>
       </c>
       <c r="D176">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="E176" s="3">
-        <v>6.6666666666666666E-2</v>
+        <v>0.15069444444444444</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43761</v>
+        <v>43745</v>
       </c>
       <c r="B177">
-        <v>9271</v>
+        <v>9322</v>
       </c>
       <c r="C177" s="2">
-        <v>6.84</v>
+        <v>6.5</v>
       </c>
       <c r="D177">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E177" s="3">
-        <v>7.7777777777777779E-2</v>
+        <v>9.1666666666666674E-2</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43762</v>
+        <v>43746</v>
       </c>
       <c r="B178">
-        <v>12754</v>
+        <v>7865</v>
       </c>
       <c r="C178" s="2">
-        <v>9.86</v>
+        <v>5.51</v>
       </c>
       <c r="D178">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="E178" s="3">
-        <v>9.7916666666666666E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43763</v>
+        <v>43747</v>
       </c>
       <c r="B179">
-        <v>4809</v>
+        <v>9593</v>
       </c>
       <c r="C179" s="2">
-        <v>3.29</v>
+        <v>6.88</v>
       </c>
       <c r="D179">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="E179" s="3">
-        <v>4.8611111111111112E-2</v>
+        <v>8.1250000000000003E-2</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43764</v>
+        <v>43748</v>
       </c>
       <c r="B180">
-        <v>5972</v>
+        <v>14311</v>
       </c>
       <c r="C180" s="2">
-        <v>4.09</v>
+        <v>10.34</v>
       </c>
       <c r="D180">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="E180" s="3">
-        <v>6.3888888888888884E-2</v>
+        <v>0.12291666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43765</v>
+        <v>43749</v>
       </c>
       <c r="B181">
-        <v>9881</v>
+        <v>7927</v>
       </c>
       <c r="C181" s="2">
-        <v>6.75</v>
+        <v>5.57</v>
       </c>
       <c r="D181">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="E181" s="3">
-        <v>9.2361111111111116E-2</v>
+        <v>6.8749999999999992E-2</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43766</v>
+        <v>43750</v>
       </c>
       <c r="B182">
-        <v>5905</v>
+        <v>4844</v>
       </c>
       <c r="C182" s="2">
-        <v>4.22</v>
+        <v>3.29</v>
       </c>
       <c r="D182">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E182" s="3">
         <v>5.2083333333333336E-2</v>
@@ -3970,53 +3970,2161 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43767</v>
+        <v>43751</v>
       </c>
       <c r="B183">
-        <v>7282</v>
+        <v>5501</v>
       </c>
       <c r="C183" s="2">
-        <v>5.08</v>
+        <v>3.77</v>
       </c>
       <c r="D183">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="E183" s="3">
-        <v>6.5277777777777782E-2</v>
+        <v>5.6944444444444443E-2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43768</v>
+        <v>43752</v>
       </c>
       <c r="B184">
-        <v>10908</v>
+        <v>7681</v>
       </c>
       <c r="C184" s="2">
-        <v>8.44</v>
+        <v>5.43</v>
       </c>
       <c r="D184">
-        <v>346</v>
+        <v>201</v>
       </c>
       <c r="E184" s="3">
-        <v>8.2638888888888887E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B185">
+        <v>5909</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="D185">
+        <v>161</v>
+      </c>
+      <c r="E185" s="3">
+        <v>5.2777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B186">
+        <v>8576</v>
+      </c>
+      <c r="C186" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="D186">
+        <v>221</v>
+      </c>
+      <c r="E186" s="3">
+        <v>7.9861111111111105E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B187">
+        <v>8171</v>
+      </c>
+      <c r="C187" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="D187">
+        <v>269</v>
+      </c>
+      <c r="E187" s="3">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B188">
+        <v>8067</v>
+      </c>
+      <c r="C188" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="D188">
+        <v>208</v>
+      </c>
+      <c r="E188" s="3">
+        <v>7.2222222222222229E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B189">
+        <v>7085</v>
+      </c>
+      <c r="C189" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="D189">
+        <v>179</v>
+      </c>
+      <c r="E189" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B190">
+        <v>11059</v>
+      </c>
+      <c r="C190" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D190">
+        <v>366</v>
+      </c>
+      <c r="E190" s="3">
+        <v>8.8888888888888892E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B191">
+        <v>10083</v>
+      </c>
+      <c r="C191" s="2">
+        <v>7.72</v>
+      </c>
+      <c r="D191">
+        <v>306</v>
+      </c>
+      <c r="E191" s="3">
+        <v>8.0555555555555561E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B192">
+        <v>7456</v>
+      </c>
+      <c r="C192" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="D192">
+        <v>203</v>
+      </c>
+      <c r="E192" s="3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B193">
+        <v>9271</v>
+      </c>
+      <c r="C193" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="D193">
+        <v>272</v>
+      </c>
+      <c r="E193" s="3">
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B194">
+        <v>12754</v>
+      </c>
+      <c r="C194" s="2">
+        <v>9.86</v>
+      </c>
+      <c r="D194">
+        <v>399</v>
+      </c>
+      <c r="E194" s="3">
+        <v>9.7916666666666666E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B195">
+        <v>4809</v>
+      </c>
+      <c r="C195" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="D195">
+        <v>124</v>
+      </c>
+      <c r="E195" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B196">
+        <v>5972</v>
+      </c>
+      <c r="C196" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="D196">
+        <v>162</v>
+      </c>
+      <c r="E196" s="3">
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B197">
+        <v>9881</v>
+      </c>
+      <c r="C197" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="D197">
+        <v>248</v>
+      </c>
+      <c r="E197" s="3">
+        <v>9.2361111111111116E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B198">
+        <v>5905</v>
+      </c>
+      <c r="C198" s="2">
+        <v>4.22</v>
+      </c>
+      <c r="D198">
+        <v>154</v>
+      </c>
+      <c r="E198" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B199">
+        <v>7282</v>
+      </c>
+      <c r="C199" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="D199">
+        <v>194</v>
+      </c>
+      <c r="E199" s="3">
+        <v>6.5277777777777782E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B200">
+        <v>10908</v>
+      </c>
+      <c r="C200" s="2">
+        <v>8.44</v>
+      </c>
+      <c r="D200">
+        <v>346</v>
+      </c>
+      <c r="E200" s="3">
+        <v>8.2638888888888887E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>43769</v>
       </c>
-      <c r="B185">
+      <c r="B201">
         <v>7730</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C201" s="2">
         <v>5.64</v>
       </c>
-      <c r="D185">
+      <c r="D201">
         <v>219</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E201" s="3">
         <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B202">
+        <v>6848</v>
+      </c>
+      <c r="C202" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="D202">
+        <v>178</v>
+      </c>
+      <c r="E202" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B203">
+        <v>5665</v>
+      </c>
+      <c r="C203" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="D203">
+        <v>155</v>
+      </c>
+      <c r="E203" s="3">
+        <v>6.1805555555555558E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B204">
+        <v>5586</v>
+      </c>
+      <c r="C204" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="D204">
+        <v>150</v>
+      </c>
+      <c r="E204" s="3">
+        <v>5.8333333333333327E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B205">
+        <v>8058</v>
+      </c>
+      <c r="C205" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="D205">
+        <v>236</v>
+      </c>
+      <c r="E205" s="3">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B206">
+        <v>6507</v>
+      </c>
+      <c r="C206" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D206">
+        <v>175</v>
+      </c>
+      <c r="E206" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B207">
+        <v>13457</v>
+      </c>
+      <c r="C207" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="D207">
+        <v>440</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B208">
+        <v>15331</v>
+      </c>
+      <c r="C208" s="2">
+        <v>12.01</v>
+      </c>
+      <c r="D208">
+        <v>505</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.11388888888888889</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B209">
+        <v>10782</v>
+      </c>
+      <c r="C209" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="D209">
+        <v>323</v>
+      </c>
+      <c r="E209" s="3">
+        <v>8.819444444444445E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B210">
+        <v>8542</v>
+      </c>
+      <c r="C210" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="D210">
+        <v>232</v>
+      </c>
+      <c r="E210" s="3">
+        <v>7.9166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B211">
+        <v>5322</v>
+      </c>
+      <c r="C211" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D211">
+        <v>139</v>
+      </c>
+      <c r="E211" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B212">
+        <v>12706</v>
+      </c>
+      <c r="C212" s="2">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="D212">
+        <v>388</v>
+      </c>
+      <c r="E212" s="3">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B213">
+        <v>4885</v>
+      </c>
+      <c r="C213" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D213">
+        <v>128</v>
+      </c>
+      <c r="E213" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B214">
+        <v>8386</v>
+      </c>
+      <c r="C214" s="2">
+        <v>6.07</v>
+      </c>
+      <c r="D214">
+        <v>236</v>
+      </c>
+      <c r="E214" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B215">
+        <v>3832</v>
+      </c>
+      <c r="C215" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="D215">
+        <v>109</v>
+      </c>
+      <c r="E215" s="3">
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B216">
+        <v>4914</v>
+      </c>
+      <c r="C216" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="D216">
+        <v>136</v>
+      </c>
+      <c r="E216" s="3">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B217">
+        <v>6878</v>
+      </c>
+      <c r="C217" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="D217">
+        <v>192</v>
+      </c>
+      <c r="E217" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B218">
+        <v>6677</v>
+      </c>
+      <c r="C218" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="D218">
+        <v>179</v>
+      </c>
+      <c r="E218" s="3">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B219">
+        <v>5871</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D219">
+        <v>157</v>
+      </c>
+      <c r="E219" s="3">
+        <v>5.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B220">
+        <v>6366</v>
+      </c>
+      <c r="C220" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D220">
+        <v>179</v>
+      </c>
+      <c r="E220" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43789</v>
+      </c>
+      <c r="B221">
+        <v>4172</v>
+      </c>
+      <c r="C221" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="D221">
+        <v>112</v>
+      </c>
+      <c r="E221" s="3">
+        <v>4.0972222222222222E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B222">
+        <v>7204</v>
+      </c>
+      <c r="C222" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="D222">
+        <v>204</v>
+      </c>
+      <c r="E222" s="3">
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B223">
+        <v>6777</v>
+      </c>
+      <c r="C223" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D223">
+        <v>183</v>
+      </c>
+      <c r="E223" s="3">
+        <v>6.0416666666666667E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B224">
+        <v>6272</v>
+      </c>
+      <c r="C224" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D224">
+        <v>165</v>
+      </c>
+      <c r="E224" s="3">
+        <v>5.9722222222222225E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B225">
+        <v>6054</v>
+      </c>
+      <c r="C225" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="D225">
+        <v>162</v>
+      </c>
+      <c r="E225" s="3">
+        <v>6.3194444444444442E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B226">
+        <v>9458</v>
+      </c>
+      <c r="C226" s="2">
+        <v>7.01</v>
+      </c>
+      <c r="D226">
+        <v>270</v>
+      </c>
+      <c r="E226" s="3">
+        <v>7.5694444444444439E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B227">
+        <v>6468</v>
+      </c>
+      <c r="C227" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="D227">
+        <v>193</v>
+      </c>
+      <c r="E227" s="3">
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B228">
+        <v>7494</v>
+      </c>
+      <c r="C228" s="2">
+        <v>5.17</v>
+      </c>
+      <c r="D228">
+        <v>191</v>
+      </c>
+      <c r="E228" s="3">
+        <v>7.3611111111111113E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B229">
+        <v>6356</v>
+      </c>
+      <c r="C229" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="D229">
+        <v>162</v>
+      </c>
+      <c r="E229" s="3">
+        <v>6.1805555555555558E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B230">
+        <v>4989</v>
+      </c>
+      <c r="C230" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D230">
+        <v>137</v>
+      </c>
+      <c r="E230" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B231">
+        <v>6371</v>
+      </c>
+      <c r="C231" s="2">
+        <v>4.33</v>
+      </c>
+      <c r="D231">
+        <v>181</v>
+      </c>
+      <c r="E231" s="3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B232">
+        <v>6116</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4.16</v>
+      </c>
+      <c r="D232">
+        <v>172</v>
+      </c>
+      <c r="E232" s="3">
+        <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B233">
+        <v>8538</v>
+      </c>
+      <c r="C233" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="D233">
+        <v>276</v>
+      </c>
+      <c r="E233" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B234">
+        <v>7003</v>
+      </c>
+      <c r="C234" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="D234">
+        <v>199</v>
+      </c>
+      <c r="E234" s="3">
+        <v>6.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B235">
+        <v>5065</v>
+      </c>
+      <c r="C235" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="D235">
+        <v>138</v>
+      </c>
+      <c r="E235" s="3">
+        <v>4.9305555555555554E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B236">
+        <v>7238</v>
+      </c>
+      <c r="C236" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="D236">
+        <v>204</v>
+      </c>
+      <c r="E236" s="3">
+        <v>6.5277777777777782E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B237">
+        <v>8773</v>
+      </c>
+      <c r="C237" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="D237">
+        <v>291</v>
+      </c>
+      <c r="E237" s="3">
+        <v>7.1527777777777787E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B238">
+        <v>4594</v>
+      </c>
+      <c r="C238" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="D238">
+        <v>139</v>
+      </c>
+      <c r="E238" s="3">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B239">
+        <v>4573</v>
+      </c>
+      <c r="C239" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="D239">
+        <v>134</v>
+      </c>
+      <c r="E239" s="3">
+        <v>5.6944444444444443E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B240">
+        <v>8741</v>
+      </c>
+      <c r="C240" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="D240">
+        <v>231</v>
+      </c>
+      <c r="E240" s="3">
+        <v>8.1944444444444445E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B241">
+        <v>9339</v>
+      </c>
+      <c r="C241" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D241">
+        <v>236</v>
+      </c>
+      <c r="E241" s="3">
+        <v>8.2638888888888887E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B242">
+        <v>8962</v>
+      </c>
+      <c r="C242" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="D242">
+        <v>264</v>
+      </c>
+      <c r="E242" s="3">
+        <v>7.1527777777777787E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B243">
+        <v>7462</v>
+      </c>
+      <c r="C243" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D243">
+        <v>225</v>
+      </c>
+      <c r="E243" s="3">
+        <v>6.5277777777777782E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B244">
+        <v>7492</v>
+      </c>
+      <c r="C244" s="2">
+        <v>5.33</v>
+      </c>
+      <c r="D244">
+        <v>209</v>
+      </c>
+      <c r="E244" s="3">
+        <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43813</v>
+      </c>
+      <c r="B245">
+        <v>5825</v>
+      </c>
+      <c r="C245" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D245">
+        <v>156</v>
+      </c>
+      <c r="E245" s="3">
+        <v>6.1805555555555558E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B246">
+        <v>4418</v>
+      </c>
+      <c r="C246" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="D246">
+        <v>133</v>
+      </c>
+      <c r="E246" s="3">
+        <v>5.0694444444444452E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B247">
+        <v>8029</v>
+      </c>
+      <c r="C247" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="D247">
+        <v>207</v>
+      </c>
+      <c r="E247" s="3">
+        <v>7.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B248">
+        <v>7513</v>
+      </c>
+      <c r="C248" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D248">
+        <v>205</v>
+      </c>
+      <c r="E248" s="3">
+        <v>7.1527777777777787E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B249">
+        <v>7904</v>
+      </c>
+      <c r="C249" s="2">
+        <v>5.92</v>
+      </c>
+      <c r="D249">
+        <v>244</v>
+      </c>
+      <c r="E249" s="3">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B250">
+        <v>8410</v>
+      </c>
+      <c r="C250" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="D250">
+        <v>260</v>
+      </c>
+      <c r="E250" s="3">
+        <v>6.7361111111111108E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B251">
+        <v>7369</v>
+      </c>
+      <c r="C251" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="D251">
+        <v>195</v>
+      </c>
+      <c r="E251" s="3">
+        <v>6.7361111111111108E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B252">
+        <v>5757</v>
+      </c>
+      <c r="C252" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="D252">
+        <v>153</v>
+      </c>
+      <c r="E252" s="3">
+        <v>6.3194444444444442E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B253">
+        <v>4606</v>
+      </c>
+      <c r="C253" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="D253">
+        <v>134</v>
+      </c>
+      <c r="E253" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B254">
+        <v>3136</v>
+      </c>
+      <c r="C254" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="D254">
+        <v>89</v>
+      </c>
+      <c r="E254" s="3">
+        <v>3.2638888888888891E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B255">
+        <v>3912</v>
+      </c>
+      <c r="C255" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="D255">
+        <v>107</v>
+      </c>
+      <c r="E255" s="3">
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B256">
+        <v>3106</v>
+      </c>
+      <c r="C256" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="D256">
+        <v>91</v>
+      </c>
+      <c r="E256" s="3">
+        <v>3.6805555555555557E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B257">
+        <v>4335</v>
+      </c>
+      <c r="C257" s="2">
+        <v>2.96</v>
+      </c>
+      <c r="D257">
+        <v>124</v>
+      </c>
+      <c r="E257" s="3">
+        <v>4.9305555555555554E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B258">
+        <v>3547</v>
+      </c>
+      <c r="C258" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D258">
+        <v>99</v>
+      </c>
+      <c r="E258" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B259">
+        <v>6098</v>
+      </c>
+      <c r="C259" s="2">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D259">
+        <v>153</v>
+      </c>
+      <c r="E259" s="3">
+        <v>6.3888888888888884E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B260">
+        <v>6588</v>
+      </c>
+      <c r="C260" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D260">
+        <v>169</v>
+      </c>
+      <c r="E260" s="3">
+        <v>5.9027777777777783E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B261">
+        <v>5434</v>
+      </c>
+      <c r="C261" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="D261">
+        <v>140</v>
+      </c>
+      <c r="E261" s="3">
+        <v>4.7222222222222221E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B262">
+        <v>6917</v>
+      </c>
+      <c r="C262" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="D262">
+        <v>201</v>
+      </c>
+      <c r="E262" s="3">
+        <v>5.9722222222222225E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B263">
+        <v>4734</v>
+      </c>
+      <c r="C263" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="D263">
+        <v>122</v>
+      </c>
+      <c r="E263" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B264">
+        <v>6223</v>
+      </c>
+      <c r="C264" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D264">
+        <v>159</v>
+      </c>
+      <c r="E264" s="3">
+        <v>5.6944444444444443E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B265">
+        <v>6594</v>
+      </c>
+      <c r="C265" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="D265">
+        <v>173</v>
+      </c>
+      <c r="E265" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B266">
+        <v>4483</v>
+      </c>
+      <c r="C266" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="D266">
+        <v>135</v>
+      </c>
+      <c r="E266" s="3">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B267">
+        <v>7010</v>
+      </c>
+      <c r="C267" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="D267">
+        <v>182</v>
+      </c>
+      <c r="E267" s="3">
+        <v>7.0833333333333331E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B268">
+        <v>6979</v>
+      </c>
+      <c r="C268" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="D268">
+        <v>187</v>
+      </c>
+      <c r="E268" s="3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B269">
+        <v>4136</v>
+      </c>
+      <c r="C269" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="D269">
+        <v>113</v>
+      </c>
+      <c r="E269" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B270">
+        <v>9222</v>
+      </c>
+      <c r="C270" s="2">
+        <v>6.76</v>
+      </c>
+      <c r="D270">
+        <v>263</v>
+      </c>
+      <c r="E270" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B271">
+        <v>8634</v>
+      </c>
+      <c r="C271" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="D271">
+        <v>240</v>
+      </c>
+      <c r="E271" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B272">
+        <v>5462</v>
+      </c>
+      <c r="C272" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="D272">
+        <v>151</v>
+      </c>
+      <c r="E272" s="3">
+        <v>5.6250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B273">
+        <v>4817</v>
+      </c>
+      <c r="C273" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="D273">
+        <v>128</v>
+      </c>
+      <c r="E273" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B274">
+        <v>3493</v>
+      </c>
+      <c r="C274" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="D274">
+        <v>103</v>
+      </c>
+      <c r="E274" s="3">
+        <v>4.3055555555555562E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B275">
+        <v>5491</v>
+      </c>
+      <c r="C275" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="D275">
+        <v>154</v>
+      </c>
+      <c r="E275" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B276">
+        <v>4730</v>
+      </c>
+      <c r="C276" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="D276">
+        <v>134</v>
+      </c>
+      <c r="E276" s="3">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B277">
+        <v>5122</v>
+      </c>
+      <c r="C277" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="D277">
+        <v>138</v>
+      </c>
+      <c r="E277" s="3">
+        <v>4.6527777777777779E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B278">
+        <v>2167</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="D278">
+        <v>65</v>
+      </c>
+      <c r="E278" s="3">
+        <v>2.7083333333333334E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B279">
+        <v>3784</v>
+      </c>
+      <c r="C279" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="D279">
+        <v>96</v>
+      </c>
+      <c r="E279" s="3">
+        <v>4.0972222222222222E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B280">
+        <v>3962</v>
+      </c>
+      <c r="C280" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="D280">
+        <v>103</v>
+      </c>
+      <c r="E280" s="3">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B281">
+        <v>5753</v>
+      </c>
+      <c r="C281" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="D281">
+        <v>155</v>
+      </c>
+      <c r="E281" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B282">
+        <v>6865</v>
+      </c>
+      <c r="C282" s="2">
+        <v>5.22</v>
+      </c>
+      <c r="D282">
+        <v>215</v>
+      </c>
+      <c r="E282" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B283">
+        <v>5296</v>
+      </c>
+      <c r="C283" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="D283">
+        <v>137</v>
+      </c>
+      <c r="E283" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B284">
+        <v>6073</v>
+      </c>
+      <c r="C284" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D284">
+        <v>193</v>
+      </c>
+      <c r="E284" s="3">
+        <v>5.4166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B285">
+        <v>4493</v>
+      </c>
+      <c r="C285" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="D285">
+        <v>130</v>
+      </c>
+      <c r="E285" s="3">
+        <v>4.7222222222222221E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B286">
+        <v>5018</v>
+      </c>
+      <c r="C286" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D286">
+        <v>146</v>
+      </c>
+      <c r="E286" s="3">
+        <v>5.1388888888888894E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B287">
+        <v>6971</v>
+      </c>
+      <c r="C287" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D287">
+        <v>181</v>
+      </c>
+      <c r="E287" s="3">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B288">
+        <v>3468</v>
+      </c>
+      <c r="C288" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="D288">
+        <v>98</v>
+      </c>
+      <c r="E288" s="3">
+        <v>4.0972222222222222E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B289">
+        <v>7376</v>
+      </c>
+      <c r="C289" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="D289">
+        <v>206</v>
+      </c>
+      <c r="E289" s="3">
+        <v>7.0833333333333331E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B290">
+        <v>8145</v>
+      </c>
+      <c r="C290" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="D290">
+        <v>224</v>
+      </c>
+      <c r="E290" s="3">
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B291">
+        <v>10237</v>
+      </c>
+      <c r="C291" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="D291">
+        <v>267</v>
+      </c>
+      <c r="E291" s="3">
+        <v>9.7916666666666666E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B292">
+        <v>9066</v>
+      </c>
+      <c r="C292" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="D292">
+        <v>230</v>
+      </c>
+      <c r="E292" s="3">
+        <v>8.6805555555555566E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B293">
+        <v>8031</v>
+      </c>
+      <c r="C293" s="2">
+        <v>5.77</v>
+      </c>
+      <c r="D293">
+        <v>231</v>
+      </c>
+      <c r="E293" s="3">
+        <v>7.5694444444444439E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B294">
+        <v>5771</v>
+      </c>
+      <c r="C294" s="2">
+        <v>4</v>
+      </c>
+      <c r="D294">
+        <v>156</v>
+      </c>
+      <c r="E294" s="3">
+        <v>6.1805555555555558E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B295">
+        <v>4739</v>
+      </c>
+      <c r="C295" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="D295">
+        <v>132</v>
+      </c>
+      <c r="E295" s="3">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B296">
+        <v>7705</v>
+      </c>
+      <c r="C296" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="D296">
+        <v>210</v>
+      </c>
+      <c r="E296" s="3">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B297">
+        <v>6861</v>
+      </c>
+      <c r="C297" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="D297">
+        <v>186</v>
+      </c>
+      <c r="E297" s="3">
+        <v>6.458333333333334E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B298">
+        <v>12988</v>
+      </c>
+      <c r="C298" s="2">
+        <v>9.86</v>
+      </c>
+      <c r="D298">
+        <v>401</v>
+      </c>
+      <c r="E298" s="3">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B299">
+        <v>6743</v>
+      </c>
+      <c r="C299" s="2">
+        <v>4.91</v>
+      </c>
+      <c r="D299">
+        <v>192</v>
+      </c>
+      <c r="E299" s="3">
+        <v>6.3194444444444442E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B300">
+        <v>7703</v>
+      </c>
+      <c r="C300" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="D300">
+        <v>210</v>
+      </c>
+      <c r="E300" s="3">
+        <v>7.0833333333333331E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B301">
+        <v>5172</v>
+      </c>
+      <c r="C301" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D301">
+        <v>153</v>
+      </c>
+      <c r="E301" s="3">
+        <v>6.1111111111111116E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B302">
+        <v>6517</v>
+      </c>
+      <c r="C302" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="D302">
+        <v>181</v>
+      </c>
+      <c r="E302" s="3">
+        <v>6.8749999999999992E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B303">
+        <v>4615</v>
+      </c>
+      <c r="C303" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D303">
+        <v>131</v>
+      </c>
+      <c r="E303" s="3">
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B304">
+        <v>9460</v>
+      </c>
+      <c r="C304" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="D304">
+        <v>312</v>
+      </c>
+      <c r="E304" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B305">
+        <v>4804</v>
+      </c>
+      <c r="C305" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="D305">
+        <v>126</v>
+      </c>
+      <c r="E305" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B306">
+        <v>11621</v>
+      </c>
+      <c r="C306" s="2">
+        <v>8.82</v>
+      </c>
+      <c r="D306">
+        <v>361</v>
+      </c>
+      <c r="E306" s="3">
+        <v>9.0277777777777776E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B307">
+        <v>10099</v>
+      </c>
+      <c r="C307" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="D307">
+        <v>282</v>
+      </c>
+      <c r="E307" s="3">
+        <v>8.6111111111111124E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B308">
+        <v>5587</v>
+      </c>
+      <c r="C308" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="D308">
+        <v>156</v>
+      </c>
+      <c r="E308" s="3">
+        <v>6.0416666666666667E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B309">
+        <v>3294</v>
+      </c>
+      <c r="C309" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D309">
+        <v>93</v>
+      </c>
+      <c r="E309" s="3">
+        <v>3.888888888888889E-2</v>
       </c>
     </row>
   </sheetData>
